--- a/medicine/Enfance/Le_Choix_d'aimer/Le_Choix_d'aimer.xlsx
+++ b/medicine/Enfance/Le_Choix_d'aimer/Le_Choix_d'aimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Choix_d%27aimer</t>
+          <t>Le_Choix_d'aimer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Choix d'aimer (titre original : Checkmate) est un roman de Malorie Blackman paru en 2004 en Angleterre et en 2006 en France aux éditions Milan. Il s'agit du troisième tome de la série constituée de Entre chiens et loups, La Couleur de la haine, Le Choix d'aimer, Le Retour de l'aube et Entre les lignes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Choix_d%27aimer</t>
+          <t>Le_Choix_d'aimer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Callie Rose a grandi entre les mensonges de sa mère et l'influence de son, oncle Jude. Le jour où elle apprend tout ce que lui avait caché sa mère à propos de son père, Callum, elle se rallie à son oncle et une bataille s'engage.
 Sephy fera tout son possible pour éviter à Callie une erreur qui lui serait fatale. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Choix_d%27aimer</t>
+          <t>Le_Choix_d'aimer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Callie Rose Hadley : personnage principal de l'histoire
 Perséphone Mira Hadley / Sephy : mère de Callie
